--- a/src/assets/data.xlsx
+++ b/src/assets/data.xlsx
@@ -419,34 +419,34 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f ca="1">RANDBETWEEN(DATE(2020,1,1),DATE(2022,12,31))</f>
-        <v>44720</v>
+        <v>44314</v>
       </c>
       <c r="B2" s="4" t="str">
         <f ca="1">IF(F2=1,"Marco",IF(F2=2,"Alessandro",IF(F2=3,"Federica",IF(F2=4,"Chiara",IF(F2=5,"Luigi",IF(F2=6,"Marina",IF(F2=7,"Paolo",IF(F2=8,"Alessia",IF(F2=9,"Carmine",IF(F2=10,"Isabella"))))))))))</f>
-        <v>Isabella</v>
+        <v>Carmine</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">IF(F2=1,"M",IF(F2=2,"M",IF(F2=3,"F",IF(F2=4,"F",IF(F2=5,"M",IF(F2=6,"F",IF(F2=7,"M",IF(F2=8,"F",IF(F2=9,"M",IF(F2=10,"F"))))))))))</f>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D2" s="1">
-        <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>13</v>
+        <f ca="1">IF(C2="F",RANDBETWEEN(0,100),RANDBETWEEN(0,120))</f>
+        <v>90</v>
       </c>
       <c r="E2" s="5">
-        <f ca="1">RANDBETWEEN(-1000,100000)</f>
-        <v>97859</v>
+        <f ca="1">RANDBETWEEN(-100,100000)</f>
+        <v>81067</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(DATE(2020,1,1),DATE(2022,12,31))</f>
-        <v>44827</v>
+        <v>44911</v>
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="1">IF(F3=1,"Marco",IF(F3=2,"Alessandro",IF(F3=3,"Federica",IF(F3=4,"Chiara",IF(F3=5,"Luigi",IF(F3=6,"Marina",IF(F3=7,"Paolo",IF(F3=8,"Alessia",IF(F3=9,"Carmine",IF(F3=10,"Isabella"))))))))))</f>
@@ -457,12 +457,12 @@
         <v>F</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" ca="1" si="3">RANDBETWEEN(0,10)</f>
-        <v>8</v>
+        <f t="shared" ref="D3:D66" ca="1" si="3">IF(C3="F",RANDBETWEEN(0,100),RANDBETWEEN(0,110))</f>
+        <v>48</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E66" ca="1" si="4">RANDBETWEEN(-10000,1000000)</f>
-        <v>816678</v>
+        <f t="shared" ref="E3:E66" ca="1" si="4">RANDBETWEEN(-100,100000)</f>
+        <v>55254</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" ca="1" si="5">RANDBETWEEN(1,10)</f>
@@ -473,34 +473,34 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43939</v>
+        <v>44242</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Luigi</v>
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>837667</v>
+        <v>5017</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44815</v>
+        <v>43859</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -512,11 +512,11 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>597092</v>
+        <v>57228</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -527,65 +527,65 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44910</v>
+        <v>44250</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Paolo</v>
+        <v>Alessia</v>
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>536367</v>
+        <v>88833</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44028</v>
+        <v>44186</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alessandro</v>
+        <v>Isabella</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>890485</v>
+        <v>59094</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44356</v>
+        <v>44257</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Federica</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -593,26 +593,26 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>18093</v>
+        <v>6973</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44363</v>
+        <v>43984</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marco</v>
+        <v>Carmine</v>
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -620,53 +620,53 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>159737</v>
+        <v>82422</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44047</v>
+        <v>44280</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chiara</v>
+        <v>Carmine</v>
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>300045</v>
+        <v>48404</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44103</v>
+        <v>44061</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Isabella</v>
+        <v>Chiara</v>
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -674,26 +674,26 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>387166</v>
+        <v>14838</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44116</v>
+        <v>44667</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Federica</v>
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -701,107 +701,107 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>369669</v>
+        <v>50238</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44742</v>
+        <v>44362</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Paolo</v>
+        <v>Chiara</v>
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>29243</v>
+        <v>79705</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44713</v>
+        <v>44143</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chiara</v>
+        <v>Carmine</v>
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>862658</v>
+        <v>61819</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44806</v>
+        <v>44133</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Paolo</v>
+        <v>Alessia</v>
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>928303</v>
+        <v>53422</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43997</v>
+        <v>44289</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marco</v>
+        <v>Paolo</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -809,107 +809,107 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>992181</v>
+        <v>10687</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44478</v>
+        <v>44855</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Paolo</v>
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>773953</v>
+        <v>13792</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44591</v>
+        <v>43861</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marco</v>
+        <v>Marina</v>
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>860337</v>
+        <v>91689</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44563</v>
+        <v>44570</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alessia</v>
+        <v>Marco</v>
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>680846</v>
+        <v>25497</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44557</v>
+        <v>44166</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Paolo</v>
+        <v>Luigi</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -917,22 +917,22 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>390907</v>
+        <v>69964</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44467</v>
+        <v>44391</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -944,11 +944,11 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>368969</v>
+        <v>18185</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -959,11 +959,11 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44593</v>
+        <v>44307</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Alessia</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -971,26 +971,26 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>62592</v>
+        <v>53301</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43875</v>
+        <v>44447</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alessia</v>
+        <v>Marina</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -998,161 +998,161 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>988416</v>
+        <v>3972</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44752</v>
+        <v>43873</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chiara</v>
+        <v>Luigi</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-7338</v>
+        <v>5767</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44159</v>
+        <v>44216</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chiara</v>
+        <v>Paolo</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>-570</v>
+        <v>37539</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43867</v>
+        <v>44888</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alessia</v>
+        <v>Alessandro</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>71979</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>951626</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44452</v>
+        <v>44514</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Chiara</v>
+        <v>Carmine</v>
       </c>
       <c r="C27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>663300</v>
+        <v>46673</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44827</v>
+        <v>44812</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Federica</v>
+        <v>Carmine</v>
       </c>
       <c r="C28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>742038</v>
+        <v>76863</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>43937</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Isabella</v>
+        <v>Federica</v>
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1160,26 +1160,26 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>222440</v>
+        <v>28795</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44050</v>
+        <v>44267</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Luigi</v>
+        <v>Carmine</v>
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1187,80 +1187,80 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>452626</v>
+        <v>10936</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44924</v>
+        <v>44518</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Luigi</v>
+        <v>Federica</v>
       </c>
       <c r="C31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>218816</v>
+        <v>98097</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44846</v>
+        <v>44478</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Carmine</v>
+        <v>Marina</v>
       </c>
       <c r="C32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>295182</v>
+        <v>46665</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44256</v>
+        <v>44782</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Federica</v>
       </c>
       <c r="C33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1268,103 +1268,103 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>785909</v>
+        <v>88646</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44552</v>
+        <v>44829</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alessia</v>
+        <v>Luigi</v>
       </c>
       <c r="C34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>54749</v>
+        <v>58634</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44199</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Federica</v>
+        <v>Alessandro</v>
       </c>
       <c r="C35" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>247253</v>
+        <v>88906</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43967</v>
+        <v>44179</v>
       </c>
       <c r="B36" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Paolo</v>
+        <v>Federica</v>
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>142280</v>
+        <v>27094</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44328</v>
+        <v>44807</v>
       </c>
       <c r="B37" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1376,11 +1376,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>454388</v>
+        <v>60299</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -1391,11 +1391,11 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44522</v>
+        <v>44872</v>
       </c>
       <c r="B38" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Isabella</v>
+        <v>Federica</v>
       </c>
       <c r="C38" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1403,26 +1403,26 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>557548</v>
+        <v>33076</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44156</v>
+        <v>44568</v>
       </c>
       <c r="B39" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Isabella</v>
       </c>
       <c r="C39" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1430,53 +1430,53 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>600380</v>
+        <v>65763</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44811</v>
+        <v>43936</v>
       </c>
       <c r="B40" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Paolo</v>
+        <v>Marina</v>
       </c>
       <c r="C40" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>128886</v>
+        <v>29150</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44885</v>
+        <v>43919</v>
       </c>
       <c r="B41" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alessia</v>
+        <v>Chiara</v>
       </c>
       <c r="C41" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1484,157 +1484,157 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>77339</v>
+        <v>11829</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44328</v>
+        <v>44812</v>
       </c>
       <c r="B42" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Federica</v>
+        <v>Alessandro</v>
       </c>
       <c r="C42" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>607113</v>
+        <v>37225</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44914</v>
+        <v>43906</v>
       </c>
       <c r="B43" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Isabella</v>
+        <v>Luigi</v>
       </c>
       <c r="C43" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>940038</v>
+        <v>22788</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44791</v>
+        <v>44597</v>
       </c>
       <c r="B44" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alessia</v>
+        <v>Luigi</v>
       </c>
       <c r="C44" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>47994</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
-      </c>
-      <c r="E44" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>88634</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44393</v>
       </c>
       <c r="B45" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Federica</v>
+        <v>Carmine</v>
       </c>
       <c r="C45" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>934109</v>
+        <v>74942</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43997</v>
+        <v>44153</v>
       </c>
       <c r="B46" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Paolo</v>
+        <v>Marina</v>
       </c>
       <c r="C46" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>559566</v>
+        <v>50254</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44628</v>
+        <v>43835</v>
       </c>
       <c r="B47" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>163051</v>
+        <v>94419</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -1661,7 +1661,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44476</v>
+        <v>44915</v>
       </c>
       <c r="B48" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1673,11 +1673,11 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>961820</v>
+        <v>63875</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -1688,65 +1688,65 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44791</v>
+        <v>44574</v>
       </c>
       <c r="B49" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Carmine</v>
+        <v>Marina</v>
       </c>
       <c r="C49" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>275728</v>
+        <v>78250</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44558</v>
+        <v>44440</v>
       </c>
       <c r="B50" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Carmine</v>
       </c>
       <c r="C50" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>44843</v>
+        <v>53807</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44187</v>
+        <v>44242</v>
       </c>
       <c r="B51" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Carmine</v>
+        <v>Alessandro</v>
       </c>
       <c r="C51" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1754,26 +1754,26 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>854089</v>
+        <v>70428</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44843</v>
       </c>
       <c r="B52" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marco</v>
+        <v>Luigi</v>
       </c>
       <c r="C52" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1781,26 +1781,26 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>643391</v>
+        <v>66595</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44829</v>
+        <v>44097</v>
       </c>
       <c r="B53" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marco</v>
+        <v>Luigi</v>
       </c>
       <c r="C53" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1808,53 +1808,53 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>860029</v>
+        <v>73917</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44782</v>
+        <v>44830</v>
       </c>
       <c r="B54" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Federica</v>
+        <v>Carmine</v>
       </c>
       <c r="C54" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>89332</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
-      </c>
-      <c r="E54" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>77165</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44424</v>
+        <v>44501</v>
       </c>
       <c r="B55" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Carmine</v>
+        <v>Luigi</v>
       </c>
       <c r="C55" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1862,26 +1862,26 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>131679</v>
+        <v>33729</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>43867</v>
       </c>
       <c r="B56" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Isabella</v>
+        <v>Alessia</v>
       </c>
       <c r="C56" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1889,53 +1889,53 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>100670</v>
+        <v>52308</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44541</v>
+        <v>43934</v>
       </c>
       <c r="B57" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Isabella</v>
+        <v>Luigi</v>
       </c>
       <c r="C57" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>891965</v>
+        <v>51010</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44410</v>
+        <v>44872</v>
       </c>
       <c r="B58" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Alessia</v>
       </c>
       <c r="C58" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1943,76 +1943,76 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>148106</v>
+        <v>53278</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44024</v>
+        <v>44784</v>
       </c>
       <c r="B59" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marco</v>
+        <v>Isabella</v>
       </c>
       <c r="C59" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>771988</v>
+        <v>90670</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44305</v>
+        <v>44736</v>
       </c>
       <c r="B60" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Luigi</v>
+        <v>Isabella</v>
       </c>
       <c r="C60" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>485449</v>
+        <v>7546</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44845</v>
+        <v>44443</v>
       </c>
       <c r="B61" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2024,11 +2024,11 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>91941</v>
+        <v>81576</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -2039,61 +2039,61 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44738</v>
+        <v>44917</v>
       </c>
       <c r="B62" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alessia</v>
+        <v>Marco</v>
       </c>
       <c r="C62" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>146962</v>
+        <v>55337</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44018</v>
+        <v>44148</v>
       </c>
       <c r="B63" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Marina</v>
+        <v>Carmine</v>
       </c>
       <c r="C63" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>687100</v>
+        <v>9727</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44334</v>
+        <v>44241</v>
       </c>
       <c r="B64" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2105,11 +2105,11 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>263219</v>
+        <v>12348</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -2120,11 +2120,11 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44159</v>
+        <v>44028</v>
       </c>
       <c r="B65" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Isabella</v>
+        <v>Alessia</v>
       </c>
       <c r="C65" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2132,161 +2132,161 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>427825</v>
+        <v>23856</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44419</v>
       </c>
       <c r="B66" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Federica</v>
+        <v>Paolo</v>
       </c>
       <c r="C66" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>991791</v>
+        <v>90588</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <f t="shared" ref="A67:A130" ca="1" si="6">RANDBETWEEN(DATE(2020,1,1),DATE(2022,12,31))</f>
-        <v>44064</v>
+        <v>44653</v>
       </c>
       <c r="B67" s="4" t="str">
         <f t="shared" ref="B67:B130" ca="1" si="7">IF(F67=1,"Marco",IF(F67=2,"Alessandro",IF(F67=3,"Federica",IF(F67=4,"Chiara",IF(F67=5,"Luigi",IF(F67=6,"Marina",IF(F67=7,"Paolo",IF(F67=8,"Alessia",IF(F67=9,"Carmine",IF(F67=10,"Isabella"))))))))))</f>
-        <v>Alessandro</v>
+        <v>Paolo</v>
       </c>
       <c r="C67" s="4" t="str">
         <f t="shared" ref="C67:C130" ca="1" si="8">IF(F67=1,"M",IF(F67=2,"M",IF(F67=3,"F",IF(F67=4,"F",IF(F67=5,"M",IF(F67=6,"F",IF(F67=7,"M",IF(F67=8,"F",IF(F67=9,"M",IF(F67=10,"F"))))))))))</f>
         <v>M</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D130" ca="1" si="9">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <f t="shared" ref="D67:D130" ca="1" si="9">IF(C67="F",RANDBETWEEN(0,100),RANDBETWEEN(0,110))</f>
+        <v>51</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" ref="E67:E130" ca="1" si="10">RANDBETWEEN(-10000,1000000)</f>
-        <v>499951</v>
+        <f t="shared" ref="E67:E130" ca="1" si="10">RANDBETWEEN(-100,100000)</f>
+        <v>78937</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F130" ca="1" si="11">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44709</v>
+        <v>44633</v>
       </c>
       <c r="B68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Chiara</v>
+        <v>Paolo</v>
       </c>
       <c r="C68" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>754318</v>
+        <v>76748</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43966</v>
+        <v>44849</v>
       </c>
       <c r="B69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Chiara</v>
+        <v>Marco</v>
       </c>
       <c r="C69" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>762885</v>
+        <v>29163</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44383</v>
+        <v>44024</v>
       </c>
       <c r="B70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessandro</v>
+        <v>Federica</v>
       </c>
       <c r="C70" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>596238</v>
+        <v>46933</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43841</v>
+        <v>44648</v>
       </c>
       <c r="B71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Marina</v>
+        <v>Federica</v>
       </c>
       <c r="C71" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2294,26 +2294,26 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" ca="1" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>29796</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
-      </c>
-      <c r="E71" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>629189</v>
-      </c>
-      <c r="F71" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>6</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44726</v>
+        <v>43896</v>
       </c>
       <c r="B72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Federica</v>
+        <v>Alessia</v>
       </c>
       <c r="C72" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2321,26 +2321,26 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>124736</v>
+        <v>96516</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44852</v>
+        <v>44779</v>
       </c>
       <c r="B73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Carmine</v>
+        <v>Paolo</v>
       </c>
       <c r="C73" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2348,26 +2348,26 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>541377</v>
+        <v>25599</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44154</v>
+        <v>44047</v>
       </c>
       <c r="B74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Isabella</v>
+        <v>Alessia</v>
       </c>
       <c r="C74" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2375,26 +2375,26 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" ca="1" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>4338</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" ca="1" si="11"/>
         <v>8</v>
-      </c>
-      <c r="E74" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>442555</v>
-      </c>
-      <c r="F74" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>10</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44075</v>
+        <v>44690</v>
       </c>
       <c r="B75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessandro</v>
+        <v>Paolo</v>
       </c>
       <c r="C75" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2402,26 +2402,26 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>448499</v>
+        <v>5213</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44664</v>
+        <v>44313</v>
       </c>
       <c r="B76" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Carmine</v>
+        <v>Paolo</v>
       </c>
       <c r="C76" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2429,80 +2429,80 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" ca="1" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>4522</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" ca="1" si="11"/>
         <v>7</v>
-      </c>
-      <c r="E76" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>535536</v>
-      </c>
-      <c r="F76" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43854</v>
+        <v>44638</v>
       </c>
       <c r="B77" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Paolo</v>
+        <v>Federica</v>
       </c>
       <c r="C77" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>975885</v>
+        <v>80813</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43941</v>
+        <v>44561</v>
       </c>
       <c r="B78" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessandro</v>
+        <v>Isabella</v>
       </c>
       <c r="C78" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>233749</v>
+        <v>77700</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44180</v>
+        <v>44379</v>
       </c>
       <c r="B79" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Marco</v>
+        <v>Paolo</v>
       </c>
       <c r="C79" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2510,26 +2510,26 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>890386</v>
+        <v>33217</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44105</v>
+        <v>44681</v>
       </c>
       <c r="B80" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Paolo</v>
+        <v>Luigi</v>
       </c>
       <c r="C80" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2537,53 +2537,53 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>944875</v>
+        <v>57931</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44812</v>
+        <v>43987</v>
       </c>
       <c r="B81" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessia</v>
+        <v>Luigi</v>
       </c>
       <c r="C81" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" ca="1" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>87504</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
-      </c>
-      <c r="E81" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>973038</v>
-      </c>
-      <c r="F81" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43863</v>
+        <v>44150</v>
       </c>
       <c r="B82" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessia</v>
+        <v>Marina</v>
       </c>
       <c r="C82" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2591,53 +2591,53 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>363886</v>
+        <v>22865</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43840</v>
+        <v>44497</v>
       </c>
       <c r="B83" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessia</v>
+        <v>Paolo</v>
       </c>
       <c r="C83" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>400468</v>
+        <v>48279</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44159</v>
+        <v>44432</v>
       </c>
       <c r="B84" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Luigi</v>
+        <v>Paolo</v>
       </c>
       <c r="C84" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2645,22 +2645,22 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554576</v>
+        <v>67213</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44469</v>
+        <v>44643</v>
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2672,11 +2672,11 @@
       </c>
       <c r="D85" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>551306</v>
+        <v>73521</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -2687,38 +2687,38 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44197</v>
+        <v>44714</v>
       </c>
       <c r="B86" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Carmine</v>
+        <v>Alessia</v>
       </c>
       <c r="C86" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>291448</v>
+        <v>95900</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44002</v>
+        <v>44688</v>
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Chiara</v>
+        <v>Alessia</v>
       </c>
       <c r="C87" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2726,49 +2726,49 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>887434</v>
+        <v>36848</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44338</v>
+        <v>44549</v>
       </c>
       <c r="B88" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessandro</v>
+        <v>Chiara</v>
       </c>
       <c r="C88" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>551773</v>
+        <v>30265</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44827</v>
+        <v>44115</v>
       </c>
       <c r="B89" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>695278</v>
+        <v>66712</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -2795,65 +2795,65 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43877</v>
+        <v>44529</v>
       </c>
       <c r="B90" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Isabella</v>
+        <v>Marco</v>
       </c>
       <c r="C90" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>332099</v>
+        <v>58506</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44679</v>
+        <v>43877</v>
       </c>
       <c r="B91" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Isabella</v>
+        <v>Carmine</v>
       </c>
       <c r="C91" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>801957</v>
+        <v>34964</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44686</v>
+        <v>44583</v>
       </c>
       <c r="B92" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessandro</v>
+        <v>Marco</v>
       </c>
       <c r="C92" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2861,22 +2861,22 @@
       </c>
       <c r="D92" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>854906</v>
+        <v>50775</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44817</v>
+        <v>44434</v>
       </c>
       <c r="B93" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2888,11 +2888,11 @@
       </c>
       <c r="D93" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>296823</v>
+        <v>70856</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -2903,34 +2903,34 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44690</v>
+        <v>44104</v>
       </c>
       <c r="B94" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Federica</v>
+        <v>Luigi</v>
       </c>
       <c r="C94" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>138711</v>
+        <v>53139</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44554</v>
+        <v>44385</v>
       </c>
       <c r="B95" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>677318</v>
+        <v>93856</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -2957,7 +2957,7 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44607</v>
+        <v>44543</v>
       </c>
       <c r="B96" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2969,11 +2969,11 @@
       </c>
       <c r="D96" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>438763</v>
+        <v>52011</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -2984,11 +2984,11 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44247</v>
+        <v>43900</v>
       </c>
       <c r="B97" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Luigi</v>
+        <v>Alessandro</v>
       </c>
       <c r="C97" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2996,26 +2996,26 @@
       </c>
       <c r="D97" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>938819</v>
+        <v>89545</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44052</v>
+        <v>43899</v>
       </c>
       <c r="B98" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessandro</v>
+        <v>Luigi</v>
       </c>
       <c r="C98" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3023,22 +3023,22 @@
       </c>
       <c r="D98" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>777495</v>
+        <v>11994</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44382</v>
+        <v>44451</v>
       </c>
       <c r="B99" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3050,11 +3050,11 @@
       </c>
       <c r="D99" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>5840</v>
+        <v>21166</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3065,65 +3065,65 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44592</v>
+        <v>43938</v>
       </c>
       <c r="B100" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Chiara</v>
+        <v>Luigi</v>
       </c>
       <c r="C100" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E100" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>-6597</v>
+        <v>11190</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44219</v>
+        <v>44139</v>
       </c>
       <c r="B101" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Marco</v>
+        <v>Alessia</v>
       </c>
       <c r="C101" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E101" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>841753</v>
+        <v>80748</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44797</v>
+        <v>44532</v>
       </c>
       <c r="B102" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Marco</v>
+        <v>Carmine</v>
       </c>
       <c r="C102" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3131,53 +3131,53 @@
       </c>
       <c r="D102" s="1">
         <f t="shared" ca="1" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="E102" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>56750</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" ca="1" si="11"/>
         <v>9</v>
-      </c>
-      <c r="E102" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>180274</v>
-      </c>
-      <c r="F102" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44785</v>
+        <v>44038</v>
       </c>
       <c r="B103" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Luigi</v>
+        <v>Marina</v>
       </c>
       <c r="C103" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E103" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>610139</v>
+        <v>70639</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44759</v>
+        <v>44260</v>
       </c>
       <c r="B104" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Carmine</v>
+        <v>Luigi</v>
       </c>
       <c r="C104" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3185,26 +3185,26 @@
       </c>
       <c r="D104" s="1">
         <f t="shared" ca="1" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="E104" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>82357</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
-      </c>
-      <c r="E104" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>408588</v>
-      </c>
-      <c r="F104" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44039</v>
+        <v>44876</v>
       </c>
       <c r="B105" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessandro</v>
+        <v>Marco</v>
       </c>
       <c r="C105" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3212,103 +3212,103 @@
       </c>
       <c r="D105" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E105" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>63122</v>
+        <v>31023</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43943</v>
+        <v>44914</v>
       </c>
       <c r="B106" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Chiara</v>
+        <v>Marco</v>
       </c>
       <c r="C106" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E106" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>180873</v>
+        <v>99323</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44760</v>
+        <v>44740</v>
       </c>
       <c r="B107" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessandro</v>
+        <v>Isabella</v>
       </c>
       <c r="C107" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E107" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>912428</v>
+        <v>32867</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44169</v>
+        <v>44722</v>
       </c>
       <c r="B108" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Chiara</v>
+        <v>Carmine</v>
       </c>
       <c r="C108" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E108" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>11608</v>
+        <v>64134</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44262</v>
+        <v>44067</v>
       </c>
       <c r="B109" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="D109" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E109" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>550022</v>
+        <v>29106</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3335,15 +3335,15 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43937</v>
+        <v>44469</v>
       </c>
       <c r="B110" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Luigi</v>
+        <v>Isabella</v>
       </c>
       <c r="C110" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -3351,76 +3351,76 @@
       </c>
       <c r="E110" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>79695</v>
+        <v>21525</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44015</v>
+        <v>44302</v>
       </c>
       <c r="B111" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Luigi</v>
+        <v>Federica</v>
       </c>
       <c r="C111" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E111" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>830298</v>
+        <v>48451</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44776</v>
+        <v>44000</v>
       </c>
       <c r="B112" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Marco</v>
+        <v>Isabella</v>
       </c>
       <c r="C112" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E112" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>862468</v>
+        <v>724</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44755</v>
+        <v>44678</v>
       </c>
       <c r="B113" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Marco</v>
+        <v>Luigi</v>
       </c>
       <c r="C113" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3428,49 +3428,49 @@
       </c>
       <c r="D113" s="1">
         <f t="shared" ca="1" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="E113" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>81146</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
-      </c>
-      <c r="E113" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>114127</v>
-      </c>
-      <c r="F113" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44035</v>
+        <v>44923</v>
       </c>
       <c r="B114" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Marco</v>
+        <v>Federica</v>
       </c>
       <c r="C114" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E114" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>839140</v>
+        <v>74207</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44793</v>
+        <v>44121</v>
       </c>
       <c r="B115" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3482,11 +3482,11 @@
       </c>
       <c r="D115" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E115" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>55138</v>
+        <v>96493</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3497,11 +3497,11 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44508</v>
+        <v>44272</v>
       </c>
       <c r="B116" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Luigi</v>
+        <v>Carmine</v>
       </c>
       <c r="C116" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3509,26 +3509,26 @@
       </c>
       <c r="D116" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E116" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>267817</v>
+        <v>14886</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44765</v>
+        <v>44644</v>
       </c>
       <c r="B117" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Chiara</v>
+        <v>Alessia</v>
       </c>
       <c r="C117" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3536,49 +3536,49 @@
       </c>
       <c r="D117" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E117" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>15233</v>
+        <v>11245</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44035</v>
+        <v>44699</v>
       </c>
       <c r="B118" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessia</v>
+        <v>Alessandro</v>
       </c>
       <c r="C118" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" ca="1" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="E118" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>75574</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
-      </c>
-      <c r="E118" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>410489</v>
-      </c>
-      <c r="F118" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43918</v>
+        <v>44473</v>
       </c>
       <c r="B119" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3590,11 +3590,11 @@
       </c>
       <c r="D119" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E119" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>789659</v>
+        <v>62146</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3605,11 +3605,11 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43862</v>
+        <v>43987</v>
       </c>
       <c r="B120" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Marina</v>
+        <v>Federica</v>
       </c>
       <c r="C120" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3617,49 +3617,49 @@
       </c>
       <c r="D120" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E120" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>66228</v>
+        <v>99929</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44684</v>
+        <v>44211</v>
       </c>
       <c r="B121" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessia</v>
+        <v>Marco</v>
       </c>
       <c r="C121" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E121" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>135473</v>
+        <v>4689</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43932</v>
+        <v>44222</v>
       </c>
       <c r="B122" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3671,11 +3671,11 @@
       </c>
       <c r="D122" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E122" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>200794</v>
+        <v>10133</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3686,38 +3686,38 @@
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44229</v>
+        <v>44286</v>
       </c>
       <c r="B123" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Chiara</v>
+        <v>Carmine</v>
       </c>
       <c r="C123" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E123" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>258109</v>
+        <v>34855</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44672</v>
+        <v>44536</v>
       </c>
       <c r="B124" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Isabella</v>
+        <v>Marina</v>
       </c>
       <c r="C124" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3725,26 +3725,26 @@
       </c>
       <c r="D124" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E124" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>40169</v>
+        <v>7084</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44215</v>
+        <v>44356</v>
       </c>
       <c r="B125" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Paolo</v>
+        <v>Marco</v>
       </c>
       <c r="C125" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3752,22 +3752,22 @@
       </c>
       <c r="D125" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E125" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>388821</v>
+        <v>31424</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44550</v>
+        <v>44018</v>
       </c>
       <c r="B126" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3779,11 +3779,11 @@
       </c>
       <c r="D126" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E126" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>416760</v>
+        <v>15624</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3794,7 +3794,7 @@
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>43972</v>
+        <v>44853</v>
       </c>
       <c r="B127" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3806,11 +3806,11 @@
       </c>
       <c r="D127" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E127" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>81527</v>
+        <v>77097</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3821,11 +3821,11 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44652</v>
+        <v>44636</v>
       </c>
       <c r="B128" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Marco</v>
+        <v>Carmine</v>
       </c>
       <c r="C128" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -3833,76 +3833,76 @@
       </c>
       <c r="D128" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E128" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>144604</v>
+        <v>51061</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44310</v>
+        <v>44570</v>
       </c>
       <c r="B129" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Federica</v>
+        <v>Carmine</v>
       </c>
       <c r="C129" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E129" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>573210</v>
+        <v>71429</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>44394</v>
+        <v>44367</v>
       </c>
       <c r="B130" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Alessandro</v>
+        <v>Federica</v>
       </c>
       <c r="C130" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" ca="1" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="E130" s="5">
+        <f t="shared" ca="1" si="10"/>
+        <v>86550</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
-      </c>
-      <c r="E130" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>921528</v>
-      </c>
-      <c r="F130" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <f t="shared" ref="A131:A194" ca="1" si="12">RANDBETWEEN(DATE(2020,1,1),DATE(2022,12,31))</f>
-        <v>43991</v>
+        <v>44475</v>
       </c>
       <c r="B131" s="4" t="str">
         <f t="shared" ref="B131:B194" ca="1" si="13">IF(F131=1,"Marco",IF(F131=2,"Alessandro",IF(F131=3,"Federica",IF(F131=4,"Chiara",IF(F131=5,"Luigi",IF(F131=6,"Marina",IF(F131=7,"Paolo",IF(F131=8,"Alessia",IF(F131=9,"Carmine",IF(F131=10,"Isabella"))))))))))</f>
@@ -3913,12 +3913,12 @@
         <v>M</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" ref="D131:D194" ca="1" si="15">RANDBETWEEN(0,10)</f>
-        <v>7</v>
+        <f t="shared" ref="D131:D194" ca="1" si="15">IF(C131="F",RANDBETWEEN(0,100),RANDBETWEEN(0,110))</f>
+        <v>27</v>
       </c>
       <c r="E131" s="5">
-        <f t="shared" ref="E131:E194" ca="1" si="16">RANDBETWEEN(-10000,1000000)</f>
-        <v>588739</v>
+        <f t="shared" ref="E131:E194" ca="1" si="16">RANDBETWEEN(-100,100000)</f>
+        <v>81788</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" ref="F131:F194" ca="1" si="17">RANDBETWEEN(1,10)</f>
@@ -3929,7 +3929,7 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44688</v>
+        <v>44289</v>
       </c>
       <c r="B132" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3941,11 +3941,11 @@
       </c>
       <c r="D132" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E132" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>879323</v>
+        <v>87924</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -3956,92 +3956,92 @@
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44516</v>
+        <v>44007</v>
       </c>
       <c r="B133" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Carmine</v>
+        <v>Federica</v>
       </c>
       <c r="C133" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D133" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E133" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>89660</v>
+        <v>81596</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44761</v>
+        <v>44182</v>
       </c>
       <c r="B134" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessandro</v>
+        <v>Federica</v>
       </c>
       <c r="C134" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E134" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>653632</v>
+        <v>12253</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44869</v>
+        <v>44346</v>
       </c>
       <c r="B135" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Isabella</v>
+        <v>Paolo</v>
       </c>
       <c r="C135" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E135" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>883493</v>
+        <v>89637</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="B136" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessia</v>
+        <v>Isabella</v>
       </c>
       <c r="C136" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4049,107 +4049,107 @@
       </c>
       <c r="D136" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E136" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>662889</v>
+        <v>16908</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43971</v>
+        <v>44842</v>
       </c>
       <c r="B137" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Carmine</v>
+        <v>Alessia</v>
       </c>
       <c r="C137" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" ca="1" si="15"/>
+        <v>92</v>
+      </c>
+      <c r="E137" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>38811</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>8</v>
-      </c>
-      <c r="E137" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>562</v>
-      </c>
-      <c r="F137" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>9</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44465</v>
+        <v>44520</v>
       </c>
       <c r="B138" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Isabella</v>
+        <v>Alessandro</v>
       </c>
       <c r="C138" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E138" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>89749</v>
+        <v>20534</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44768</v>
+        <v>44862</v>
       </c>
       <c r="B139" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Isabella</v>
+        <v>Paolo</v>
       </c>
       <c r="C139" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E139" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>868170</v>
+        <v>71482</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44307</v>
+        <v>44734</v>
       </c>
       <c r="B140" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Isabella</v>
+        <v>Chiara</v>
       </c>
       <c r="C140" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4157,26 +4157,26 @@
       </c>
       <c r="D140" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E140" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>300285</v>
+        <v>48928</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44821</v>
+        <v>44408</v>
       </c>
       <c r="B141" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Paolo</v>
+        <v>Marco</v>
       </c>
       <c r="C141" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4184,26 +4184,26 @@
       </c>
       <c r="D141" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E141" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>703336</v>
+        <v>12212</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44154</v>
+        <v>43961</v>
       </c>
       <c r="B142" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Carmine</v>
+        <v>Paolo</v>
       </c>
       <c r="C142" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="D142" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E142" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>546343</v>
+        <v>57140</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44909</v>
+        <v>44757</v>
       </c>
       <c r="B143" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4238,11 +4238,11 @@
       </c>
       <c r="D143" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E143" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>832820</v>
+        <v>64279</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -4253,88 +4253,88 @@
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44456</v>
+        <v>44268</v>
       </c>
       <c r="B144" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Alessandro</v>
       </c>
       <c r="C144" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E144" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>700816</v>
+        <v>35163</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44567</v>
+        <v>44831</v>
       </c>
       <c r="B145" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Carmine</v>
       </c>
       <c r="C145" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="E145" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>332059</v>
+        <v>88970</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44748</v>
+        <v>44832</v>
       </c>
       <c r="B146" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Luigi</v>
       </c>
       <c r="C146" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E146" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>384714</v>
+        <v>29946</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43918</v>
+        <v>44650</v>
       </c>
       <c r="B147" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4346,11 +4346,11 @@
       </c>
       <c r="D147" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E147" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>666509</v>
+        <v>57461</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -4361,38 +4361,38 @@
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44570</v>
+        <v>44684</v>
       </c>
       <c r="B148" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessandro</v>
+        <v>Marina</v>
       </c>
       <c r="C148" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E148" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>494699</v>
+        <v>7277</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44881</v>
+        <v>44398</v>
       </c>
       <c r="B149" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Luigi</v>
+        <v>Paolo</v>
       </c>
       <c r="C149" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4400,53 +4400,53 @@
       </c>
       <c r="D149" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E149" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>816311</v>
+        <v>88224</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44714</v>
+        <v>44222</v>
       </c>
       <c r="B150" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Isabella</v>
+        <v>Alessandro</v>
       </c>
       <c r="C150" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E150" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>791149</v>
+        <v>7800</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44605</v>
+        <v>44026</v>
       </c>
       <c r="B151" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Alessia</v>
       </c>
       <c r="C151" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4454,26 +4454,26 @@
       </c>
       <c r="D151" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E151" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>708488</v>
+        <v>63448</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44565</v>
+        <v>44247</v>
       </c>
       <c r="B152" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessandro</v>
+        <v>Carmine</v>
       </c>
       <c r="C152" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4481,22 +4481,22 @@
       </c>
       <c r="D152" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E152" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>648738</v>
+        <v>9021</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44287</v>
+        <v>44133</v>
       </c>
       <c r="B153" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4508,11 +4508,11 @@
       </c>
       <c r="D153" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E153" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>283285</v>
+        <v>54844</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -4523,11 +4523,11 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44119</v>
+        <v>44828</v>
       </c>
       <c r="B154" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Paolo</v>
+        <v>Alessandro</v>
       </c>
       <c r="C154" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4535,80 +4535,80 @@
       </c>
       <c r="D154" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="E154" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>386268</v>
+        <v>73962</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44332</v>
+        <v>44894</v>
       </c>
       <c r="B155" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marco</v>
+        <v>Isabella</v>
       </c>
       <c r="C155" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E155" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>937092</v>
+        <v>82422</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44085</v>
+        <v>44182</v>
       </c>
       <c r="B156" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Luigi</v>
       </c>
       <c r="C156" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E156" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>774617</v>
+        <v>82666</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44584</v>
+        <v>44705</v>
       </c>
       <c r="B157" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Isabella</v>
       </c>
       <c r="C157" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4616,161 +4616,161 @@
       </c>
       <c r="D157" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E157" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>576290</v>
+        <v>25570</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43986</v>
+        <v>43834</v>
       </c>
       <c r="B158" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Federica</v>
+        <v>Alessandro</v>
       </c>
       <c r="C158" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E158" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>895423</v>
+        <v>1111</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44827</v>
+        <v>43875</v>
       </c>
       <c r="B159" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marco</v>
+        <v>Alessia</v>
       </c>
       <c r="C159" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E159" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>800339</v>
+        <v>21992</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44336</v>
+        <v>43920</v>
       </c>
       <c r="B160" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Paolo</v>
+        <v>Isabella</v>
       </c>
       <c r="C160" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E160" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>473440</v>
+        <v>10880</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44157</v>
+        <v>44316</v>
       </c>
       <c r="B161" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Alessandro</v>
       </c>
       <c r="C161" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E161" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>711234</v>
+        <v>62831</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44287</v>
+        <v>44307</v>
       </c>
       <c r="B162" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Chiara</v>
+        <v>Carmine</v>
       </c>
       <c r="C162" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E162" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>596752</v>
+        <v>90876</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44017</v>
+        <v>44224</v>
       </c>
       <c r="B163" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Chiara</v>
+        <v>Marina</v>
       </c>
       <c r="C163" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4778,26 +4778,26 @@
       </c>
       <c r="D163" s="1">
         <f t="shared" ca="1" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="E163" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>81955</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>6</v>
-      </c>
-      <c r="E163" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>753657</v>
-      </c>
-      <c r="F163" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>4</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44106</v>
+        <v>44226</v>
       </c>
       <c r="B164" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Luigi</v>
+        <v>Alessandro</v>
       </c>
       <c r="C164" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4809,130 +4809,130 @@
       </c>
       <c r="E164" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>155387</v>
+        <v>68653</v>
       </c>
       <c r="F164" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44509</v>
+        <v>44467</v>
       </c>
       <c r="B165" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Carmine</v>
+        <v>Chiara</v>
       </c>
       <c r="C165" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E165" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>927395</v>
+        <v>42886</v>
       </c>
       <c r="F165" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44105</v>
+        <v>44420</v>
       </c>
       <c r="B166" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Federica</v>
+        <v>Paolo</v>
       </c>
       <c r="C166" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E166" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>903209</v>
+        <v>29007</v>
       </c>
       <c r="F166" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44903</v>
+        <v>44253</v>
       </c>
       <c r="B167" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Federica</v>
+        <v>Paolo</v>
       </c>
       <c r="C167" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D167" s="1">
         <f t="shared" ca="1" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="E167" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>66994</v>
+      </c>
+      <c r="F167" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>7</v>
-      </c>
-      <c r="E167" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>688825</v>
-      </c>
-      <c r="F167" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>3</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44479</v>
+        <v>44921</v>
       </c>
       <c r="B168" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Isabella</v>
+        <v>Paolo</v>
       </c>
       <c r="C168" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E168" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>337132</v>
+        <v>24868</v>
       </c>
       <c r="F168" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43997</v>
+        <v>43928</v>
       </c>
       <c r="B169" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Alessia</v>
       </c>
       <c r="C169" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4940,26 +4940,26 @@
       </c>
       <c r="D169" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E169" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>61277</v>
+        <v>87874</v>
       </c>
       <c r="F169" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44834</v>
+        <v>44479</v>
       </c>
       <c r="B170" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessandro</v>
+        <v>Marco</v>
       </c>
       <c r="C170" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4967,26 +4967,26 @@
       </c>
       <c r="D170" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E170" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>802146</v>
+        <v>65431</v>
       </c>
       <c r="F170" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44642</v>
+        <v>44061</v>
       </c>
       <c r="B171" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marco</v>
+        <v>Alessandro</v>
       </c>
       <c r="C171" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4994,22 +4994,22 @@
       </c>
       <c r="D171" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E171" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>412483</v>
+        <v>44014</v>
       </c>
       <c r="F171" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44249</v>
+        <v>44802</v>
       </c>
       <c r="B172" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -5021,11 +5021,11 @@
       </c>
       <c r="D172" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E172" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>234448</v>
+        <v>58643</v>
       </c>
       <c r="F172" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -5036,11 +5036,11 @@
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43849</v>
+        <v>44530</v>
       </c>
       <c r="B173" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Isabella</v>
       </c>
       <c r="C173" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5048,265 +5048,265 @@
       </c>
       <c r="D173" s="1">
         <f t="shared" ca="1" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="E173" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>53035</v>
+      </c>
+      <c r="F173" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>10</v>
-      </c>
-      <c r="E173" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>231298</v>
-      </c>
-      <c r="F173" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>6</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44026</v>
+        <v>44751</v>
       </c>
       <c r="B174" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Marco</v>
       </c>
       <c r="C174" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D174" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E174" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>110908</v>
+        <v>24965</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44853</v>
+        <v>44909</v>
       </c>
       <c r="B175" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Luigi</v>
       </c>
       <c r="C175" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E175" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>168478</v>
+        <v>30372</v>
       </c>
       <c r="F175" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44808</v>
+        <v>44452</v>
       </c>
       <c r="B176" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Isabella</v>
+        <v>Carmine</v>
       </c>
       <c r="C176" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" ca="1" si="15"/>
+        <v>97</v>
+      </c>
+      <c r="E176" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>36254</v>
+      </c>
+      <c r="F176" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>9</v>
-      </c>
-      <c r="E176" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>666956</v>
-      </c>
-      <c r="F176" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>10</v>
       </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44015</v>
+        <v>43934</v>
       </c>
       <c r="B177" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessia</v>
+        <v>Marco</v>
       </c>
       <c r="C177" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E177" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>869786</v>
+        <v>52632</v>
       </c>
       <c r="F177" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44664</v>
+        <v>44349</v>
       </c>
       <c r="B178" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Luigi</v>
+        <v>Federica</v>
       </c>
       <c r="C178" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E178" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>784835</v>
+        <v>54326</v>
       </c>
       <c r="F178" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44572</v>
+        <v>44764</v>
       </c>
       <c r="B179" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Carmine</v>
+        <v>Chiara</v>
       </c>
       <c r="C179" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E179" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>730382</v>
+        <v>88254</v>
       </c>
       <c r="F179" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44625</v>
+        <v>44220</v>
       </c>
       <c r="B180" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessia</v>
+        <v>Alessandro</v>
       </c>
       <c r="C180" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E180" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>94281</v>
+        <v>43860</v>
       </c>
       <c r="F180" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44748</v>
+        <v>44208</v>
       </c>
       <c r="B181" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessia</v>
+        <v>Alessandro</v>
       </c>
       <c r="C181" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D181" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E181" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>577249</v>
+        <v>67057</v>
       </c>
       <c r="F181" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B182" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Federica</v>
+        <v>Paolo</v>
       </c>
       <c r="C182" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D182" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E182" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>502110</v>
+        <v>25508</v>
       </c>
       <c r="F182" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44547</v>
+        <v>43998</v>
       </c>
       <c r="B183" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -5318,11 +5318,11 @@
       </c>
       <c r="D183" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E183" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>804248</v>
+        <v>5468</v>
       </c>
       <c r="F183" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -5333,115 +5333,115 @@
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44269</v>
+        <v>44223</v>
       </c>
       <c r="B184" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Marina</v>
+        <v>Luigi</v>
       </c>
       <c r="C184" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="E184" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>188468</v>
+        <v>50734</v>
       </c>
       <c r="F184" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43847</v>
+        <v>44485</v>
       </c>
       <c r="B185" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Isabella</v>
+        <v>Carmine</v>
       </c>
       <c r="C185" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D185" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="E185" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>848424</v>
+        <v>77252</v>
       </c>
       <c r="F185" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43854</v>
+        <v>44704</v>
       </c>
       <c r="B186" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Luigi</v>
+        <v>Marina</v>
       </c>
       <c r="C186" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E186" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>916807</v>
+        <v>46275</v>
       </c>
       <c r="F186" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44203</v>
+        <v>44212</v>
       </c>
       <c r="B187" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Chiara</v>
+        <v>Luigi</v>
       </c>
       <c r="C187" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D187" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E187" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>108352</v>
+        <v>31787</v>
       </c>
       <c r="F187" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44246</v>
+        <v>44364</v>
       </c>
       <c r="B188" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -5453,11 +5453,11 @@
       </c>
       <c r="D188" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="E188" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>958063</v>
+        <v>72312</v>
       </c>
       <c r="F188" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -5468,34 +5468,34 @@
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44843</v>
+        <v>44335</v>
       </c>
       <c r="B189" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessandro</v>
+        <v>Isabella</v>
       </c>
       <c r="C189" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E189" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>10299</v>
+        <v>21093</v>
       </c>
       <c r="F189" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44829</v>
+        <v>43995</v>
       </c>
       <c r="B190" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -5507,11 +5507,11 @@
       </c>
       <c r="D190" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E190" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>421329</v>
+        <v>74192</v>
       </c>
       <c r="F190" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -5522,11 +5522,11 @@
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44731</v>
+        <v>43891</v>
       </c>
       <c r="B191" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Paolo</v>
+        <v>Carmine</v>
       </c>
       <c r="C191" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5534,26 +5534,26 @@
       </c>
       <c r="D191" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E191" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>936719</v>
+        <v>68329</v>
       </c>
       <c r="F191" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43886</v>
+        <v>44310</v>
       </c>
       <c r="B192" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Paolo</v>
+        <v>Marco</v>
       </c>
       <c r="C192" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5561,26 +5561,26 @@
       </c>
       <c r="D192" s="1">
         <f t="shared" ca="1" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="E192" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>84133</v>
+      </c>
+      <c r="F192" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
-      </c>
-      <c r="E192" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>58135</v>
-      </c>
-      <c r="F192" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>7</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>44847</v>
+        <v>44524</v>
       </c>
       <c r="B193" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Paolo</v>
+        <v>Carmine</v>
       </c>
       <c r="C193" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5588,49 +5588,49 @@
       </c>
       <c r="D193" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E193" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>50795</v>
+        <v>59835</v>
       </c>
       <c r="F193" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43880</v>
+        <v>44430</v>
       </c>
       <c r="B194" s="4" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Alessia</v>
+        <v>Alessandro</v>
       </c>
       <c r="C194" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D194" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E194" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>746044</v>
+        <v>69771</v>
       </c>
       <c r="F194" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <f t="shared" ref="A195:A201" ca="1" si="18">RANDBETWEEN(DATE(2020,1,1),DATE(2022,12,31))</f>
-        <v>44063</v>
+        <v>44037</v>
       </c>
       <c r="B195" s="4" t="str">
         <f t="shared" ref="B195:B201" ca="1" si="19">IF(F195=1,"Marco",IF(F195=2,"Alessandro",IF(F195=3,"Federica",IF(F195=4,"Chiara",IF(F195=5,"Luigi",IF(F195=6,"Marina",IF(F195=7,"Paolo",IF(F195=8,"Alessia",IF(F195=9,"Carmine",IF(F195=10,"Isabella"))))))))))</f>
@@ -5641,12 +5641,12 @@
         <v>F</v>
       </c>
       <c r="D195" s="1">
-        <f t="shared" ref="D195:D201" ca="1" si="21">RANDBETWEEN(0,10)</f>
-        <v>5</v>
+        <f t="shared" ref="D195:D201" ca="1" si="21">IF(C195="F",RANDBETWEEN(0,100),RANDBETWEEN(0,110))</f>
+        <v>92</v>
       </c>
       <c r="E195" s="5">
-        <f t="shared" ref="E195:E201" ca="1" si="22">RANDBETWEEN(-10000,1000000)</f>
-        <v>767541</v>
+        <f t="shared" ref="E195:E201" ca="1" si="22">RANDBETWEEN(-100,100000)</f>
+        <v>48893</v>
       </c>
       <c r="F195" s="1">
         <f t="shared" ref="F195:F201" ca="1" si="23">RANDBETWEEN(1,10)</f>
@@ -5657,7 +5657,7 @@
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>43983</v>
+        <v>44833</v>
       </c>
       <c r="B196" s="4" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -5669,11 +5669,11 @@
       </c>
       <c r="D196" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E196" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>856424</v>
+        <v>94129</v>
       </c>
       <c r="F196" s="1">
         <f t="shared" ca="1" si="23"/>
@@ -5684,34 +5684,34 @@
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>44100</v>
+        <v>44257</v>
       </c>
       <c r="B197" s="4" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Chiara</v>
+        <v>Alessandro</v>
       </c>
       <c r="C197" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D197" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E197" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>558326</v>
+        <v>21896</v>
       </c>
       <c r="F197" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>44417</v>
+        <v>44263</v>
       </c>
       <c r="B198" s="4" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -5723,11 +5723,11 @@
       </c>
       <c r="D198" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="E198" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>215387</v>
+        <v>56833</v>
       </c>
       <c r="F198" s="1">
         <f t="shared" ca="1" si="23"/>
@@ -5738,11 +5738,11 @@
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>44084</v>
+        <v>44625</v>
       </c>
       <c r="B199" s="4" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Alessia</v>
+        <v>Federica</v>
       </c>
       <c r="C199" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -5750,26 +5750,26 @@
       </c>
       <c r="D199" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E199" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>56357</v>
+        <v>43868</v>
       </c>
       <c r="F199" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>44042</v>
+        <v>43932</v>
       </c>
       <c r="B200" s="4" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Federica</v>
+        <v>Isabella</v>
       </c>
       <c r="C200" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -5777,42 +5777,42 @@
       </c>
       <c r="D200" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E200" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>383227</v>
+        <v>57978</v>
       </c>
       <c r="F200" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>43957</v>
+        <v>44667</v>
       </c>
       <c r="B201" s="4" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Marina</v>
+        <v>Marco</v>
       </c>
       <c r="C201" s="4" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E201" s="5">
         <f t="shared" ca="1" si="22"/>
-        <v>789884</v>
+        <v>83872</v>
       </c>
       <c r="F201" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G201" s="1"/>
     </row>
